--- a/fallbeispiele.xlsx
+++ b/fallbeispiele.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallje\Nextcloud2\Science\KI Patientenfall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallje\ownCloud - Jens Walldorf@cloud.uni-halle.de\Science\KI Patientenfall\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DED4B5-75A4-4507-8E05-F47F6074C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +61,6 @@
     <t>Seit mehreren Monaten hast Du wiederkehrend Bauchschmerzen, eigentlich hast Du schon viel länger Beschwerden: Blähungen, Durchfall. Manchmal ist Dir übel. Du machst dir Sorgen, auch weil Du Dich oft müde fühlst. Dein Stuhlgang riecht übel, auch wenn Winde abgehen. Manchmal hast Du juckenden Hautausschlag mit kleinen Bläschen. Du bist schon immer auffallend schlank und eher untergewichtig: dein BMI ist 17. Reisen: In den letzten Jahren nur in Europa unterwegs.</t>
   </si>
   <si>
-    <t>Seit mehreren Monaten hast Du wiederkehrend Bauchschmerzen, viele Blähungen. Manchmal ist Dir nach dem Essen übel, Du hast Schwindel und Kopfschmerzen. Es kommt Dir so vor, dass Dir das vor allem dann passiert, wenn Du Milchprodukte zu Dir genommen hast. Du machst dir Sorgen, auch weil Du Dich oft müde fühlst. Dein Stuhlgang riecht übel, auch wenn Winde abgehen. Dein Gewicht ist stabil. Reisen: Du reist gerne, vor 4 Monaten warst Du auf einer Kreuzfahrt im Mittelmeer. Familie: Dein Großvater ist mit 85 Jahren an Darmkrebs gestorben.</t>
-  </si>
-  <si>
     <t>Gurtzeichen sichtbar, Hämatome im Oberbauch, Druckschmerz im Epigastrium. Darmgeräusche leise, Übelkeit erkennbar. Kein Fieber.</t>
   </si>
   <si>
@@ -77,12 +75,17 @@
   </si>
   <si>
     <t>Besonderheit</t>
+  </si>
+  <si>
+    <t>Seit mehreren Monaten hast Du wiederkehrend Bauchschmerzen, viele Blähungen. Manchmal ist Dir nach dem Essen übel, Du hast Schwindel und Kopfschmerzen. 
+*Nur auf Nachfrage zu Ernährung oder Unverträglichlkeiten* berichtetst du, dass die Beschwerden möglicherweise dann auftreten, wenn Du Milchprodukte zu Dir genommen hast. 
+Du machst dir Sorgen, auch weil Du Dich oft müde fühlst. Dein Stuhlgang riecht übel, auch wenn Winde abgehen. Dein Gewicht ist stabil. Reisen: Du reist gerne, vor 4 Monaten warst Du auf einer Kreuzfahrt im Mittelmeer. Familie: Dein Großvater ist mit 85 Jahren an Darmkrebs gestorben.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,6 +253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -285,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,19 +497,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -494,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -502,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -510,10 +547,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -521,26 +558,26 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/fallbeispiele.xlsx
+++ b/fallbeispiele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallje\ownCloud - Jens Walldorf@cloud.uni-halle.de\Science\KI Patientenfall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NextCloud Uni Halle\Science\KI Patientenfall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DED4B5-75A4-4507-8E05-F47F6074C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970D44A-CD25-4FB5-98B2-62927F30F9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Szenario</t>
   </si>
@@ -49,13 +49,7 @@
     <t>Akute Pankreatitis</t>
   </si>
   <si>
-    <t>Du leidest seit mehreren Monaten unter Bauchschmerzen im rechten Unterbauch. Diese treten schubweise auf. Gelegentlich hast du Fieber bis 38,5 °C und Nachtschweiß. Dein Stuhlgang ist breiig, und du musst 3–5 × täglich auf die Toilette. Du hast in der letzten Woche 3 kg ungewollt abgenommen. Erzähle davon aber nur, wenn ausdrücklich danach gefragt wird. Reisen: Vor 5 Jahren Korsika, sonst nur in Deutschland.</t>
-  </si>
-  <si>
     <t>Du hast seit über 6 Monaten immer wieder Bauchschmerzen, mal rechts, mal links, aber nie in der Mitte. Diese bessern sich meist nach dem Stuhlgang. Manchmal hast du weichen Stuhl, manchmal Verstopfung. Es besteht kein Fieber und kein Gewichtsverlust. Dein Allgemeinbefinden ist gut, du bist aber beunruhigt, weil es chronisch ist. Reisen: In den letzten Jahren nur in Deutschland, vor Jahren mal in der Türkei, da hattest Du eine Magen-Darm-Infektion.</t>
-  </si>
-  <si>
-    <t>Seit etwa einem Tag hast du zunehmende Bauchschmerzen, die erst um den Nabel herum begannen und nun im rechten Unterbauch lokalisiert sind. Dir ist übel, du hattest keinen Appetit. Du hattest heute Fieber bis 38,3 °C. Du machst dir Sorgen. Der letzte Stuhlgang war gestern, normal. Reisen: Nur in Deutschland.</t>
   </si>
   <si>
     <t>Seit mehreren Monaten hast Du wiederkehrend Bauchschmerzen, eigentlich hast Du schon viel länger Beschwerden: Blähungen, Durchfall. Manchmal ist Dir übel. Du machst dir Sorgen, auch weil Du Dich oft müde fühlst. Dein Stuhlgang riecht übel, auch wenn Winde abgehen. Manchmal hast Du juckenden Hautausschlag mit kleinen Bläschen. Du bist schon immer auffallend schlank und eher untergewichtig: dein BMI ist 17. Reisen: In den letzten Jahren nur in Europa unterwegs.</t>
@@ -80,6 +74,33 @@
     <t>Seit mehreren Monaten hast Du wiederkehrend Bauchschmerzen, viele Blähungen. Manchmal ist Dir nach dem Essen übel, Du hast Schwindel und Kopfschmerzen. 
 *Nur auf Nachfrage zu Ernährung oder Unverträglichlkeiten* berichtetst du, dass die Beschwerden möglicherweise dann auftreten, wenn Du Milchprodukte zu Dir genommen hast. 
 Du machst dir Sorgen, auch weil Du Dich oft müde fühlst. Dein Stuhlgang riecht übel, auch wenn Winde abgehen. Dein Gewicht ist stabil. Reisen: Du reist gerne, vor 4 Monaten warst Du auf einer Kreuzfahrt im Mittelmeer. Familie: Dein Großvater ist mit 85 Jahren an Darmkrebs gestorben.</t>
+  </si>
+  <si>
+    <t>Du leidest seit mehreren Monaten unter Bauchschmerzen im rechten Unterbauch. Diese treten schubweise auf. Gelegentlich hast du Fieber bis 38,5 °C und Nachtschweiß. Dein Stuhlgang ist breiig, und du musst 3–5 × täglich auf die Toilette. Du hast in der letzten Woche 3 kg ungewollt abgenommen. Erzähle davon aber nur, wenn ausdrücklich danach gefragt wird. Reisen: Vor 5 Jahren Korsika, sonst nur in Deutschland.</t>
+  </si>
+  <si>
+    <t>Seit etwa einem Tag hast du zunehmende Bauchschmerzen, die erst um den Nabel herum begannen und nun im rechten Unterbauch lokalisiert sind. Dir ist übel, du hattest keinen Appetit. Du hattest heute Fieber bis 38,3 °C. Du machst dir Sorgen. Der letzte Stuhlgang war gestern, normal. Reisen: Nur in Deutschland.</t>
+  </si>
+  <si>
+    <t>Alterskorrektur</t>
+  </si>
+  <si>
+    <t>Divertikulitis</t>
+  </si>
+  <si>
+    <t>Du hast seit einigen Wochen unregelmäßigen Stuhlgang, mal Verstopfung mal Durchfall. Es kommen oft nur kleine Kugeln beim Stuhlgang, fast wie Hasenköttel. Du versuchst seitdem, Dich gesünder zu ernähren. Gestern sind linksseitige Schmerzen im Unterbauch dazu gekommen, inzwischen sind die Schmerzen sehr stark. Heute hattest Du ausserdem Fieber (38.1 °C) - das berichtest Du aber nur auf Nachfrage! Dein Gewicht ist unverändert. 
+Vor drei Wochen warst Du im Urlaub in Dänemark. Dein Vater ist an Darmkrebs verstorben im Alter von 75 Jahren. Im letzten Herbst hast Du Dich gegen Corona impfen lassen, Du bist  aber sehr unsicher, ob das eine gute Idee war. Du rauchst gelegentlich (1-2 Zigaretten pro Tag) und trinkst Abens immer ein Glas Rotwein.</t>
+  </si>
+  <si>
+    <t>Akuter Myokardinfarkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du hast heute morgen beim Kehren der Hauseinfahrt, einen Druck im Oberbauch verspürt. Der Druck hat nicht ausgestraht, war nur im Oberbauch. Dir war auch etwas übel und schwindlig, so dass Du Dich erstmal wieder hingelegt hast zum ausruhen. Ausserdem hast Du eine Magentablette eingenommen, deren Namen Du nicht mehr weisst. Du fühlst Dich aber trotzdem immernoch sehr schwach und hast plötzlich stark geschwitzt. Dein Sohn kam zu Besuch und hat Dich in die Notaufnahme gebracht, er hat sich Sorgen gemacht. Der Druck im Oberbauch ist immernoch da. Du fühlst Dich immernoch sehr schwach. 
+Ein hoher Blutdruck ist bei Dir seit einem Jahr bekannt (nur auf Nachfrage angeben), bisher wurde er nicht behandelt. Ausserdem hat die Hausärztin von einem beginnendne Diabetes gesprochen. Du rauchst seitdem Du 22 Jahre alt bist, etwas 10 Zigaretten am Tag. Du trinkst praktisch keine Alkohol. Du bist etwas übergewichtig, machst aber jede Woche Sport (Schwimmen). 
+Deine Schwester hatte mit 60 einen Schlaganfall. Deine zwei Kinder sind gesund. </t>
+  </si>
+  <si>
+    <t>Appendektomienarbe</t>
   </si>
 </sst>
 </file>
@@ -149,16 +170,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,9 +245,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,26 +280,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,26 +315,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,18 +491,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,65 +515,120 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="D7" s="3"/>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
